--- a/Prototype/PHPSCRIPTS/SamanAndrey/ForecastResult2017.xlsx
+++ b/Prototype/PHPSCRIPTS/SamanAndrey/ForecastResult2017.xlsx
@@ -449,7 +449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F10" sqref="F10"/>
@@ -676,6 +676,28 @@
         <v>2686</v>
       </c>
     </row>
+    <row r="26" spans="1:7">
+      <c r="D26">
+        <v>45</v>
+      </c>
+      <c r="E26">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="D27">
+        <v>45</v>
+      </c>
+      <c r="E27">
+        <v>45</v>
+      </c>
+      <c r="F27">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/Prototype/PHPSCRIPTS/SamanAndrey/ForecastResult2017.xlsx
+++ b/Prototype/PHPSCRIPTS/SamanAndrey/ForecastResult2017.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -33,78 +33,6 @@
   </si>
   <si>
     <t>Upper Confidence Bound</t>
-  </si>
-  <si>
-    <t>2015-01-31</t>
-  </si>
-  <si>
-    <t>2015-02-28</t>
-  </si>
-  <si>
-    <t>2015-03-31</t>
-  </si>
-  <si>
-    <t>2015-04-30</t>
-  </si>
-  <si>
-    <t>2015-05-31</t>
-  </si>
-  <si>
-    <t>2015-06-30</t>
-  </si>
-  <si>
-    <t>2015-07-31</t>
-  </si>
-  <si>
-    <t>2015-08-31</t>
-  </si>
-  <si>
-    <t>2015-09-30</t>
-  </si>
-  <si>
-    <t>2015-10-31</t>
-  </si>
-  <si>
-    <t>2015-11-30</t>
-  </si>
-  <si>
-    <t>2015-12-31</t>
-  </si>
-  <si>
-    <t>2016-01-31</t>
-  </si>
-  <si>
-    <t>2016-02-28</t>
-  </si>
-  <si>
-    <t>2016-03-31</t>
-  </si>
-  <si>
-    <t>2016-04-30</t>
-  </si>
-  <si>
-    <t>2016-05-31</t>
-  </si>
-  <si>
-    <t>2016-06-30</t>
-  </si>
-  <si>
-    <t>2016-07-31</t>
-  </si>
-  <si>
-    <t>2016-08-31</t>
-  </si>
-  <si>
-    <t>2016-09-30</t>
-  </si>
-  <si>
-    <t>2016-10-31</t>
-  </si>
-  <si>
-    <t>2016-11-30</t>
-  </si>
-  <si>
-    <t>2016-12-31</t>
   </si>
 </sst>
 </file>
@@ -449,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F10" sqref="F10"/>
@@ -485,217 +413,225 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" t="str">
+        <f>DATE(2015,01,31)</f>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1072</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3" t="str">
+        <f>DATE(2015,02,28)</f>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4" t="str">
+        <f>DATE(2015,03,31)</f>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5" t="str">
+        <f>DATE(2015,04,30)</f>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1074</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="B6" t="str">
+        <f>DATE(2015,05,31)</f>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>955</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="B7" t="str">
+        <f>DATE(2015,06,30)</f>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" t="s">
-        <v>12</v>
+      <c r="B8" t="str">
+        <f>DATE(2015,07,31)</f>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" t="s">
-        <v>13</v>
+      <c r="B9" t="str">
+        <f>DATE(2015,08,31)</f>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>831</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" t="s">
-        <v>14</v>
+      <c r="B10" t="str">
+        <f>DATE(2015,09,30)</f>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="B11" t="str">
+        <f>DATE(2015,10,31)</f>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>16</v>
+      <c r="B12" t="str">
+        <f>DATE(2015,11,30)</f>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>1088</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>17</v>
+      <c r="B13" t="str">
+        <f>DATE(2015,12,31)</f>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>1402</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" t="s">
-        <v>18</v>
+      <c r="B14" t="str">
+        <f>DATE(2016,01,31)</f>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1072</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" t="s">
-        <v>19</v>
+      <c r="B15" t="str">
+        <f>DATE(2016,02,28)</f>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>1186</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" t="s">
-        <v>20</v>
+      <c r="B16" t="str">
+        <f>DATE(2016,03,31)</f>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>1268</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="B17" t="s">
-        <v>21</v>
+      <c r="B17" t="str">
+        <f>DATE(2016,04,30)</f>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>734</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="B18" t="s">
-        <v>22</v>
+      <c r="B18" t="str">
+        <f>DATE(2016,05,31)</f>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>798</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" t="s">
-        <v>23</v>
+      <c r="B19" t="str">
+        <f>DATE(2016,06,30)</f>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>791</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" t="s">
-        <v>24</v>
+      <c r="B20" t="str">
+        <f>DATE(2016,07,31)</f>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>1100</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" t="s">
-        <v>25</v>
+      <c r="B21" t="str">
+        <f>DATE(2016,08,31)</f>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>1003</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" t="s">
-        <v>26</v>
+      <c r="B22" t="str">
+        <f>DATE(2016,09,30)</f>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>1223</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" t="s">
-        <v>27</v>
+      <c r="B23" t="str">
+        <f>DATE(2016,10,31)</f>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>1440</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" t="s">
-        <v>28</v>
+      <c r="B24" t="str">
+        <f>DATE(2016,11,30)</f>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>1161</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" t="s">
-        <v>29</v>
+      <c r="B25" t="str">
+        <f>DATE(2016,12,31)</f>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>2686</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="D26">
-        <v>45</v>
-      </c>
-      <c r="E26">
-        <v>45</v>
-      </c>
-      <c r="F26">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="D27">
-        <v>45</v>
-      </c>
-      <c r="E27">
-        <v>45</v>
-      </c>
-      <c r="F27">
-        <v>45</v>
+      <c r="D26" t="str">
+        <f>FORECAST.ETS(B26,$C$2:$C$25,$B$2:$B$25,1,1)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Prototype/PHPSCRIPTS/SamanAndrey/ForecastResult2017.xlsx
+++ b/Prototype/PHPSCRIPTS/SamanAndrey/ForecastResult2017.xlsx
@@ -39,7 +39,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <b val="0"/>
@@ -71,11 +73,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -380,12 +388,12 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="true" style="0"/>
+    <col min="2" max="2" width="11" customWidth="true" style="3"/>
     <col min="3" max="3" width="19.28515625" customWidth="true" style="0"/>
     <col min="5" max="5" width="25.42578125" customWidth="true" style="0"/>
     <col min="6" max="6" width="24" customWidth="true" style="0"/>
@@ -396,7 +404,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -413,232 +421,278 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" t="str">
+      <c r="A2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3"/>
+      <c r="B3" s="2" t="str">
         <f>DATE(2015,01,31)</f>
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="str">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4"/>
+      <c r="B4" s="2" t="str">
         <f>DATE(2015,02,28)</f>
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="str">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5"/>
+      <c r="B5" s="2" t="str">
         <f>DATE(2015,03,31)</f>
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="str">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6"/>
+      <c r="B6" s="2" t="str">
         <f>DATE(2015,04,30)</f>
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" t="str">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7"/>
+      <c r="B7" s="2" t="str">
         <f>DATE(2015,05,31)</f>
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="str">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8"/>
+      <c r="B8" s="2" t="str">
         <f>DATE(2015,06,30)</f>
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" t="str">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9"/>
+      <c r="B9" s="2" t="str">
         <f>DATE(2015,07,31)</f>
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" t="str">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10"/>
+      <c r="B10" s="2" t="str">
         <f>DATE(2015,08,31)</f>
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11"/>
+      <c r="B11" s="2" t="str">
         <f>DATE(2015,09,30)</f>
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="str">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12"/>
+      <c r="B12" s="2" t="str">
         <f>DATE(2015,10,31)</f>
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="str">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13"/>
+      <c r="B13" s="2" t="str">
         <f>DATE(2015,11,30)</f>
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="str">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14"/>
+      <c r="B14" s="2" t="str">
         <f>DATE(2015,12,31)</f>
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" t="str">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15"/>
+      <c r="B15" s="2" t="str">
         <f>DATE(2016,01,31)</f>
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" t="str">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16"/>
+      <c r="B16" s="2" t="str">
         <f>DATE(2016,02,28)</f>
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" t="str">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17"/>
+      <c r="B17" s="2" t="str">
         <f>DATE(2016,03,31)</f>
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="B17" t="str">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18"/>
+      <c r="B18" s="2" t="str">
         <f>DATE(2016,04,30)</f>
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" t="str">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19"/>
+      <c r="B19" s="2" t="str">
         <f>DATE(2016,05,31)</f>
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" t="str">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20"/>
+      <c r="B20" s="2" t="str">
         <f>DATE(2016,06,30)</f>
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" t="str">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21"/>
+      <c r="B21" s="2" t="str">
         <f>DATE(2016,07,31)</f>
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="B21" t="str">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22"/>
+      <c r="B22" s="2" t="str">
         <f>DATE(2016,08,31)</f>
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" t="str">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23"/>
+      <c r="B23" s="2" t="str">
         <f>DATE(2016,09,30)</f>
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" t="str">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24"/>
+      <c r="B24" s="2" t="str">
         <f>DATE(2016,10,31)</f>
         <v>0</v>
       </c>
-      <c r="C23">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" t="str">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25"/>
+      <c r="B25" s="2" t="str">
         <f>DATE(2016,11,30)</f>
         <v>0</v>
       </c>
-      <c r="C24">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" t="str">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="3" t="str">
         <f>DATE(2016,12,31)</f>
         <v>0</v>
       </c>
-      <c r="C25">
-        <v>2686</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="D26" t="str">
-        <f>FORECAST.ETS(B26,$C$2:$C$25,$B$2:$B$25,1,1)</f>
-        <v>0</v>
-      </c>
+      <c r="C26"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
